--- a/Code/Results/Cases/Case_1_137/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_137/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.22607507147552</v>
+        <v>1.865848376575912</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4269075948248542</v>
+        <v>0.1779072435960671</v>
       </c>
       <c r="E2">
-        <v>3.120824501443707</v>
+        <v>0.8085047307785374</v>
       </c>
       <c r="F2">
-        <v>8.237181027541396</v>
+        <v>3.422755640162137</v>
       </c>
       <c r="G2">
-        <v>0.0006575467395848173</v>
+        <v>0.002447628687513673</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.417736917835782</v>
+        <v>0.81099605637894</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6411943756320877</v>
+        <v>1.535965110662168</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.776012232504911</v>
+        <v>1.773780148288211</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3581611292271987</v>
+        <v>0.1665998921905327</v>
       </c>
       <c r="E3">
-        <v>2.633088119019845</v>
+        <v>0.7057250909312813</v>
       </c>
       <c r="F3">
-        <v>6.933857178831346</v>
+        <v>3.196875946888753</v>
       </c>
       <c r="G3">
-        <v>0.000681686895016858</v>
+        <v>0.002459791236997574</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.046228284805352</v>
+        <v>0.732628589055679</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7238314457243682</v>
+        <v>1.561931636863399</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.511198341766033</v>
+        <v>1.71846754994408</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3192750766932164</v>
+        <v>0.1598496732897416</v>
       </c>
       <c r="E4">
-        <v>2.351223133469446</v>
+        <v>0.6426644111768667</v>
       </c>
       <c r="F4">
-        <v>6.189794939501269</v>
+        <v>3.061510461391663</v>
       </c>
       <c r="G4">
-        <v>0.0006963390482286576</v>
+        <v>0.002467620432423804</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.829229342928926</v>
+        <v>0.6850079866848091</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7758386196678959</v>
+        <v>1.578622067910064</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.405613561894313</v>
+        <v>1.696228960981784</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3040873538379856</v>
+        <v>0.1571456858269187</v>
       </c>
       <c r="E5">
-        <v>2.239737880742126</v>
+        <v>0.6169703906518862</v>
       </c>
       <c r="F5">
-        <v>5.897724041856463</v>
+        <v>3.007157015669947</v>
       </c>
       <c r="G5">
-        <v>0.0007022981891173785</v>
+        <v>0.002470902274912622</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.742988383742158</v>
+        <v>0.665722229461096</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7973588526729376</v>
+        <v>1.585611290619365</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.38820772328279</v>
+        <v>1.692554357502559</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.301600870229791</v>
+        <v>0.1566994692101957</v>
       </c>
       <c r="E6">
-        <v>2.221404201965925</v>
+        <v>0.6127039143550093</v>
       </c>
       <c r="F6">
-        <v>5.849825175156127</v>
+        <v>2.998179753380924</v>
       </c>
       <c r="G6">
-        <v>0.0007032877544313055</v>
+        <v>0.002471452756889152</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.728785302903276</v>
+        <v>0.6625269488687309</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8009521801022199</v>
+        <v>1.586783182736678</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.509765616621337</v>
+        <v>1.718166416579095</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3190677847825043</v>
+        <v>0.1598130190839271</v>
       </c>
       <c r="E7">
-        <v>2.349707119236797</v>
+        <v>0.6423178879346096</v>
       </c>
       <c r="F7">
-        <v>6.185814271606318</v>
+        <v>3.060774191231928</v>
       </c>
       <c r="G7">
-        <v>0.0006964194275238986</v>
+        <v>0.002467664321812224</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.828058102298883</v>
+        <v>0.6847474127955024</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7761275175695683</v>
+        <v>1.578715566950677</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.068111911478582</v>
+        <v>1.833847774406706</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.4023909768597633</v>
+        <v>0.1739675081772845</v>
       </c>
       <c r="E8">
-        <v>2.948266911143321</v>
+        <v>0.7730517883892247</v>
       </c>
       <c r="F8">
-        <v>7.774069285724067</v>
+        <v>3.344165488145961</v>
       </c>
       <c r="G8">
-        <v>0.0006659270111320979</v>
+        <v>0.002451747653430293</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.286917912891852</v>
+        <v>0.7838686347086252</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6694308799634037</v>
+        <v>1.544763309635243</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.290957534326708</v>
+        <v>2.070580403298095</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.6039749452082219</v>
+        <v>0.203328960512124</v>
       </c>
       <c r="E9">
-        <v>4.33281497721697</v>
+        <v>1.030168942533379</v>
       </c>
       <c r="F9">
-        <v>11.53202384996069</v>
+        <v>3.927564504137735</v>
       </c>
       <c r="G9">
-        <v>0.0006027227174889955</v>
+        <v>0.00242337824403009</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.314566298377429</v>
+        <v>0.9824341925690874</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4695147466636254</v>
+        <v>1.484111890929466</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.353008583849885</v>
+        <v>2.25086606992744</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.8046319295437172</v>
+        <v>0.2259901043891546</v>
       </c>
       <c r="E10">
-        <v>5.65803728971764</v>
+        <v>1.22008710816462</v>
       </c>
       <c r="F10">
-        <v>15.16983706320957</v>
+        <v>4.37492039594548</v>
       </c>
       <c r="G10">
-        <v>0.0005491217391959371</v>
+        <v>0.002404234569912922</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.243555736984945</v>
+        <v>1.1312343501653</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3258573904942015</v>
+        <v>1.443168672389355</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.915966566375857</v>
+        <v>2.33434013894481</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9234895834622989</v>
+        <v>0.2365609245833298</v>
       </c>
       <c r="E11">
-        <v>6.428742474677279</v>
+        <v>1.306833463085212</v>
       </c>
       <c r="F11">
-        <v>17.2788402500384</v>
+        <v>4.582924738272141</v>
       </c>
       <c r="G11">
-        <v>0.0005203877557187004</v>
+        <v>0.002395887172824298</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.755395300224791</v>
+        <v>1.199642418687347</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2594887287297976</v>
+        <v>1.425328963656437</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.150082488111252</v>
+        <v>2.366165874859973</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9760880886076109</v>
+        <v>0.2406036190827479</v>
       </c>
       <c r="E12">
-        <v>6.767606413871988</v>
+        <v>1.339743195633559</v>
       </c>
       <c r="F12">
-        <v>18.20116778656057</v>
+        <v>4.662372881434237</v>
       </c>
       <c r="G12">
-        <v>0.000508257716591548</v>
+        <v>0.00239277756742516</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.973312305977288</v>
+        <v>1.225656767103374</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.233774043689909</v>
+        <v>1.418686659591039</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.098439454308959</v>
+        <v>2.359301935387407</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9643083210210079</v>
+        <v>0.239731150883074</v>
       </c>
       <c r="E13">
-        <v>6.691811164523216</v>
+        <v>1.332652626196278</v>
       </c>
       <c r="F13">
-        <v>17.9951999675277</v>
+        <v>4.645231436473239</v>
       </c>
       <c r="G13">
-        <v>0.0005109452824399483</v>
+        <v>0.002393445000908825</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.924957955610068</v>
+        <v>1.220049127841548</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2393525430912593</v>
+        <v>1.420112159648067</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.934710348258591</v>
+        <v>2.336954100053276</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9276266126053372</v>
+        <v>0.2368927107144145</v>
       </c>
       <c r="E14">
-        <v>6.455436878171525</v>
+        <v>1.309539688703069</v>
       </c>
       <c r="F14">
-        <v>17.35163048346647</v>
+        <v>4.589447127269182</v>
       </c>
       <c r="G14">
-        <v>0.0005194213954347049</v>
+        <v>0.002395630317354473</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.7727232629843</v>
+        <v>1.201780398565802</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2573896527613417</v>
+        <v>1.424780227023327</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.837620598371643</v>
+        <v>2.323293700502745</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.906330979101341</v>
+        <v>0.2351593236180065</v>
       </c>
       <c r="E15">
-        <v>6.31794262502072</v>
+        <v>1.295390571190438</v>
       </c>
       <c r="F15">
-        <v>16.9764917455538</v>
+        <v>4.555367407064637</v>
       </c>
       <c r="G15">
-        <v>0.0005244189019213747</v>
+        <v>0.002396975560100329</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.683180921083192</v>
+        <v>1.19060475532342</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.2683389039947457</v>
+        <v>1.427654303442822</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.318420268351019</v>
+        <v>2.245440736799139</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.7976440994753204</v>
+        <v>0.2253047258373897</v>
       </c>
       <c r="E16">
-        <v>5.612462813675762</v>
+        <v>1.21442596879541</v>
       </c>
       <c r="F16">
-        <v>15.04478616342737</v>
+        <v>4.361420279749041</v>
       </c>
       <c r="G16">
-        <v>0.0005508732759448687</v>
+        <v>0.002404787311634073</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.212605918161216</v>
+        <v>1.126778716818876</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3301481976163902</v>
+        <v>1.444350367226843</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.02453024766902</v>
+        <v>2.198058768755061</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.7395927587656388</v>
+        <v>0.219327834198765</v>
       </c>
       <c r="E17">
-        <v>5.23247222312412</v>
+        <v>1.16485400322631</v>
       </c>
       <c r="F17">
-        <v>14.00139380102564</v>
+        <v>4.243616579564332</v>
       </c>
       <c r="G17">
-        <v>0.0005657185791259153</v>
+        <v>0.002409671672851896</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.951693274618378</v>
+        <v>1.087811939150583</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3676288677057968</v>
+        <v>1.454794230513546</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.862212986166639</v>
+        <v>2.170943089784771</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.7084935491106705</v>
+        <v>0.2159146319574177</v>
       </c>
       <c r="E18">
-        <v>5.027780573406915</v>
+        <v>1.136373982040453</v>
       </c>
       <c r="F18">
-        <v>13.43909245075878</v>
+        <v>4.176280433499585</v>
       </c>
       <c r="G18">
-        <v>0.0005739002288383082</v>
+        <v>0.002412515056026803</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.809075597108688</v>
+        <v>1.065466473849256</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3891281453704583</v>
+        <v>1.460875189947885</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.808251769698529</v>
+        <v>2.161785574036116</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.6982988404669754</v>
+        <v>0.2147631348946675</v>
       </c>
       <c r="E19">
-        <v>4.960491127902827</v>
+        <v>1.126736407241793</v>
       </c>
       <c r="F19">
-        <v>13.25425420013352</v>
+        <v>4.153552925435122</v>
       </c>
       <c r="G19">
-        <v>0.000576619170462451</v>
+        <v>0.002413483637846827</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.761882979628695</v>
+        <v>1.057912031992544</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3964038272796806</v>
+        <v>1.462946788026152</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.055079389852324</v>
+        <v>2.203088421714313</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.7455203389068572</v>
+        <v>0.2199615292425108</v>
       </c>
       <c r="E20">
-        <v>5.27139310928257</v>
+        <v>1.17012759121917</v>
       </c>
       <c r="F20">
-        <v>14.10830513072119</v>
+        <v>4.25611312368585</v>
       </c>
       <c r="G20">
-        <v>0.0005641778118829871</v>
+        <v>0.002409148206602146</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.978649142823372</v>
+        <v>1.09195301896284</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.363646734905231</v>
+        <v>1.453674810735471</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.982097767038908</v>
+        <v>2.343512293697984</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9381418473308543</v>
+        <v>0.2377253337292586</v>
       </c>
       <c r="E21">
-        <v>6.5232533521596</v>
+        <v>1.316326786055214</v>
       </c>
       <c r="F21">
-        <v>17.53645536168887</v>
+        <v>4.605813558064881</v>
       </c>
       <c r="G21">
-        <v>0.0005169747676487962</v>
+        <v>0.002394987047063857</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.816621205186664</v>
+        <v>1.207143337557909</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.2521142178876037</v>
+        <v>1.423406028045783</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.729474018032306</v>
+        <v>2.436548804507026</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.11608576877714</v>
+        <v>0.2495677318840421</v>
       </c>
       <c r="E22">
-        <v>7.665150481187027</v>
+        <v>1.412235662299338</v>
       </c>
       <c r="F22">
-        <v>20.62213073634132</v>
+        <v>4.838351623413985</v>
       </c>
       <c r="G22">
-        <v>0.0004775069061022652</v>
+        <v>0.002386031085473128</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.528435710405063</v>
+        <v>1.283069433812102</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.1747936800026899</v>
+        <v>1.404283609857433</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.309525677912461</v>
+        <v>2.386776073310216</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.013128882824958</v>
+        <v>0.2432252282529532</v>
       </c>
       <c r="E23">
-        <v>7.005621769899591</v>
+        <v>1.361010938489699</v>
       </c>
       <c r="F23">
-        <v>18.84656720185001</v>
+        <v>4.713865057429587</v>
       </c>
       <c r="G23">
-        <v>0.0004999120531395482</v>
+        <v>0.002390783863872655</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.123683192695069</v>
+        <v>1.242485262935929</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.216884183879527</v>
+        <v>1.4144291304676</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.041247943652763</v>
+        <v>2.200814127181388</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.7428335867490716</v>
+        <v>0.2196749642522775</v>
       </c>
       <c r="E24">
-        <v>5.253755305252554</v>
+        <v>1.167743341923057</v>
       </c>
       <c r="F24">
-        <v>14.05985667135491</v>
+        <v>4.250462221508656</v>
       </c>
       <c r="G24">
-        <v>0.0005648754590659579</v>
+        <v>0.002409384755543507</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.966440002196862</v>
+        <v>1.090080659552257</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3654471870625269</v>
+        <v>1.45418066170841</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.940064338166621</v>
+        <v>2.005446237062586</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.543242782991797</v>
+        <v>0.1952028624876334</v>
       </c>
       <c r="E25">
-        <v>3.922894399925781</v>
+        <v>0.9604753759377047</v>
       </c>
       <c r="F25">
-        <v>10.41134182005334</v>
+        <v>3.766588364740215</v>
       </c>
       <c r="G25">
-        <v>0.0006205536869950988</v>
+        <v>0.002430752023853131</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.015845881226085</v>
+        <v>0.9282319864749695</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5227512959899521</v>
+        <v>1.499884743834691</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_137/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_137/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.865848376575912</v>
+        <v>3.226075071475577</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1779072435960671</v>
+        <v>0.4269075948246694</v>
       </c>
       <c r="E2">
-        <v>0.8085047307785374</v>
+        <v>3.120824501443707</v>
       </c>
       <c r="F2">
-        <v>3.422755640162137</v>
+        <v>8.237181027541396</v>
       </c>
       <c r="G2">
-        <v>0.002447628687513673</v>
+        <v>0.0006575467395858529</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.81099605637894</v>
+        <v>2.417736917835725</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.535965110662168</v>
+        <v>0.6411943756320362</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.773780148288211</v>
+        <v>2.776012232505025</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1665998921905327</v>
+        <v>0.3581611292269713</v>
       </c>
       <c r="E3">
-        <v>0.7057250909312813</v>
+        <v>2.633088119019845</v>
       </c>
       <c r="F3">
-        <v>3.196875946888753</v>
+        <v>6.933857178831374</v>
       </c>
       <c r="G3">
-        <v>0.002459791236997574</v>
+        <v>0.0006816868949625583</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.732628589055679</v>
+        <v>2.046228284805267</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.561931636863399</v>
+        <v>0.7238314457243611</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.71846754994408</v>
+        <v>2.511198341765976</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1598496732897416</v>
+        <v>0.3192750766932733</v>
       </c>
       <c r="E4">
-        <v>0.6426644111768667</v>
+        <v>2.351223133469446</v>
       </c>
       <c r="F4">
-        <v>3.061510461391663</v>
+        <v>6.189794939501297</v>
       </c>
       <c r="G4">
-        <v>0.002467620432423804</v>
+        <v>0.0006963390482272431</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6850079866848091</v>
+        <v>1.82922934292904</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.578622067910064</v>
+        <v>0.7758386196678888</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.696228960981784</v>
+        <v>2.405613561894199</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1571456858269187</v>
+        <v>0.3040873538379998</v>
       </c>
       <c r="E5">
-        <v>0.6169703906518862</v>
+        <v>2.239737880742112</v>
       </c>
       <c r="F5">
-        <v>3.007157015669947</v>
+        <v>5.897724041856463</v>
       </c>
       <c r="G5">
-        <v>0.002470902274912622</v>
+        <v>0.0007022981889765266</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.665722229461096</v>
+        <v>1.74298838374213</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.585611290619365</v>
+        <v>0.7973588526729376</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.692554357502559</v>
+        <v>2.388207723282846</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1566994692101957</v>
+        <v>0.3016008702298052</v>
       </c>
       <c r="E6">
-        <v>0.6127039143550093</v>
+        <v>2.221404201965925</v>
       </c>
       <c r="F6">
-        <v>2.998179753380924</v>
+        <v>5.849825175156127</v>
       </c>
       <c r="G6">
-        <v>0.002471452756889152</v>
+        <v>0.0007032877542524382</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6625269488687309</v>
+        <v>1.728785302903276</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.586783182736678</v>
+        <v>0.8009521801022181</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.718166416579095</v>
+        <v>2.509765616621394</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1598130190839271</v>
+        <v>0.3190677847829164</v>
       </c>
       <c r="E7">
-        <v>0.6423178879346096</v>
+        <v>2.349707119236811</v>
       </c>
       <c r="F7">
-        <v>3.060774191231928</v>
+        <v>6.185814271606347</v>
       </c>
       <c r="G7">
-        <v>0.002467664321812224</v>
+        <v>0.0006964194273946287</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6847474127955024</v>
+        <v>1.828058102298854</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.578715566950677</v>
+        <v>0.7761275175695719</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.833847774406706</v>
+        <v>3.068111911478752</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1739675081772845</v>
+        <v>0.4023909768597633</v>
       </c>
       <c r="E8">
-        <v>0.7730517883892247</v>
+        <v>2.948266911143293</v>
       </c>
       <c r="F8">
-        <v>3.344165488145961</v>
+        <v>7.774069285724067</v>
       </c>
       <c r="G8">
-        <v>0.002451747653430293</v>
+        <v>0.0006659270113362696</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7838686347086252</v>
+        <v>2.286917912891795</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.544763309635243</v>
+        <v>0.6694308799634037</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.070580403298095</v>
+        <v>4.290957534326537</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.203328960512124</v>
+        <v>0.6039749452083072</v>
       </c>
       <c r="E9">
-        <v>1.030168942533379</v>
+        <v>4.332814977216941</v>
       </c>
       <c r="F9">
-        <v>3.927564504137735</v>
+        <v>11.53202384996055</v>
       </c>
       <c r="G9">
-        <v>0.00242337824403009</v>
+        <v>0.0006027227177206111</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9824341925690874</v>
+        <v>3.314566298377429</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.484111890929466</v>
+        <v>0.4695147466636378</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.25086606992744</v>
+        <v>5.353008583849999</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2259901043891546</v>
+        <v>0.8046319295437172</v>
       </c>
       <c r="E10">
-        <v>1.22008710816462</v>
+        <v>5.658037289717527</v>
       </c>
       <c r="F10">
-        <v>4.37492039594548</v>
+        <v>15.16983706320951</v>
       </c>
       <c r="G10">
-        <v>0.002404234569912922</v>
+        <v>0.0005491217391978942</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.1312343501653</v>
+        <v>4.243555736985002</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.443168672389355</v>
+        <v>0.3258573904942565</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.33434013894481</v>
+        <v>5.915966566375744</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2365609245833298</v>
+        <v>0.9234895834622137</v>
       </c>
       <c r="E11">
-        <v>1.306833463085212</v>
+        <v>6.428742474677279</v>
       </c>
       <c r="F11">
-        <v>4.582924738272141</v>
+        <v>17.27884025003851</v>
       </c>
       <c r="G11">
-        <v>0.002395887172824298</v>
+        <v>0.0005203877557784258</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.199642418687347</v>
+        <v>4.755395300224734</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.425328963656437</v>
+        <v>0.2594887287298508</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.366165874859973</v>
+        <v>6.150082488111252</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2406036190827479</v>
+        <v>0.9760880886074403</v>
       </c>
       <c r="E12">
-        <v>1.339743195633559</v>
+        <v>6.76760641387196</v>
       </c>
       <c r="F12">
-        <v>4.662372881434237</v>
+        <v>18.20116778656046</v>
       </c>
       <c r="G12">
-        <v>0.00239277756742516</v>
+        <v>0.0005082577165057933</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.225656767103374</v>
+        <v>4.973312305977288</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.418686659591039</v>
+        <v>0.2337740436898557</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.359301935387407</v>
+        <v>6.098439454309187</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.239731150883074</v>
+        <v>0.964308321020809</v>
       </c>
       <c r="E13">
-        <v>1.332652626196278</v>
+        <v>6.691811164523159</v>
       </c>
       <c r="F13">
-        <v>4.645231436473239</v>
+        <v>17.99519996752753</v>
       </c>
       <c r="G13">
-        <v>0.002393445000908825</v>
+        <v>0.0005109452822932473</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.220049127841548</v>
+        <v>4.924957955609898</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.420112159648067</v>
+        <v>0.2393525430912131</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.336954100053276</v>
+        <v>5.934710348258534</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2368927107144145</v>
+        <v>0.9276266126053372</v>
       </c>
       <c r="E14">
-        <v>1.309539688703069</v>
+        <v>6.455436878171469</v>
       </c>
       <c r="F14">
-        <v>4.589447127269182</v>
+        <v>17.35163048346641</v>
       </c>
       <c r="G14">
-        <v>0.002395630317354473</v>
+        <v>0.0005194213953734507</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.201780398565802</v>
+        <v>4.772723262984186</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.424780227023327</v>
+        <v>0.2573896527613382</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.323293700502745</v>
+        <v>5.837620598371586</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2351593236180065</v>
+        <v>0.9063309791008578</v>
       </c>
       <c r="E15">
-        <v>1.295390571190438</v>
+        <v>6.317942625020606</v>
       </c>
       <c r="F15">
-        <v>4.555367407064637</v>
+        <v>16.97649174555352</v>
       </c>
       <c r="G15">
-        <v>0.002396975560100329</v>
+        <v>0.000524418902019945</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.19060475532342</v>
+        <v>4.683180921083306</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.427654303442822</v>
+        <v>0.2683389039947581</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.245440736799139</v>
+        <v>5.318420268351019</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2253047258373897</v>
+        <v>0.7976440994751783</v>
       </c>
       <c r="E16">
-        <v>1.21442596879541</v>
+        <v>5.612462813675762</v>
       </c>
       <c r="F16">
-        <v>4.361420279749041</v>
+        <v>15.04478616342732</v>
       </c>
       <c r="G16">
-        <v>0.002404787311634073</v>
+        <v>0.0005508732760974134</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.126778716818876</v>
+        <v>4.21260591816133</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.444350367226843</v>
+        <v>0.330148197616456</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.198058768755061</v>
+        <v>5.02453024766902</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.219327834198765</v>
+        <v>0.739592758765383</v>
       </c>
       <c r="E17">
-        <v>1.16485400322631</v>
+        <v>5.232472223124205</v>
       </c>
       <c r="F17">
-        <v>4.243616579564332</v>
+        <v>14.00139380102576</v>
       </c>
       <c r="G17">
-        <v>0.002409671672851896</v>
+        <v>0.0005657185789683294</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.087811939150583</v>
+        <v>3.951693274618322</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.454794230513546</v>
+        <v>0.3676288677057844</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.170943089784771</v>
+        <v>4.862212986166526</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2159146319574177</v>
+        <v>0.7084935491106705</v>
       </c>
       <c r="E18">
-        <v>1.136373982040453</v>
+        <v>5.027780573406915</v>
       </c>
       <c r="F18">
-        <v>4.176280433499585</v>
+        <v>13.43909245075889</v>
       </c>
       <c r="G18">
-        <v>0.002412515056026803</v>
+        <v>0.0005739002289276791</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.065466473849256</v>
+        <v>3.809075597108745</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.460875189947885</v>
+        <v>0.3891281453705098</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.161785574036116</v>
+        <v>4.808251769698359</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2147631348946675</v>
+        <v>0.6982988404665207</v>
       </c>
       <c r="E19">
-        <v>1.126736407241793</v>
+        <v>4.960491127902799</v>
       </c>
       <c r="F19">
-        <v>4.153552925435122</v>
+        <v>13.25425420013352</v>
       </c>
       <c r="G19">
-        <v>0.002413483637846827</v>
+        <v>0.0005766191704617359</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.057912031992544</v>
+        <v>3.761882979628695</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.462946788026152</v>
+        <v>0.3964038272796735</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.203088421714313</v>
+        <v>5.055079389852438</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2199615292425108</v>
+        <v>0.7455203389068288</v>
       </c>
       <c r="E20">
-        <v>1.17012759121917</v>
+        <v>5.27139310928257</v>
       </c>
       <c r="F20">
-        <v>4.25611312368585</v>
+        <v>14.10830513072125</v>
       </c>
       <c r="G20">
-        <v>0.002409148206602146</v>
+        <v>0.000564177811914671</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.09195301896284</v>
+        <v>3.978649142823429</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.453674810735471</v>
+        <v>0.3636467349052719</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.343512293697984</v>
+        <v>5.982097767038852</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2377253337292586</v>
+        <v>0.9381418473307974</v>
       </c>
       <c r="E21">
-        <v>1.316326786055214</v>
+        <v>6.523253352159571</v>
       </c>
       <c r="F21">
-        <v>4.605813558064881</v>
+        <v>17.53645536168887</v>
       </c>
       <c r="G21">
-        <v>0.002394987047063857</v>
+        <v>0.0005169747676503356</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.207143337557909</v>
+        <v>4.816621205186607</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.423406028045783</v>
+        <v>0.2521142178876055</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.436548804507026</v>
+        <v>6.729474018032306</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2495677318840421</v>
+        <v>1.116085768777253</v>
       </c>
       <c r="E22">
-        <v>1.412235662299338</v>
+        <v>7.665150481187197</v>
       </c>
       <c r="F22">
-        <v>4.838351623413985</v>
+        <v>20.62213073634189</v>
       </c>
       <c r="G22">
-        <v>0.002386031085473128</v>
+        <v>0.000477506906236229</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.283069433812102</v>
+        <v>5.528435710405176</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.404283609857433</v>
+        <v>0.1747936800027166</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.386776073310216</v>
+        <v>6.309525677912461</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2432252282529532</v>
+        <v>1.013128882825441</v>
       </c>
       <c r="E23">
-        <v>1.361010938489699</v>
+        <v>7.005621769899705</v>
       </c>
       <c r="F23">
-        <v>4.713865057429587</v>
+        <v>18.84656720184995</v>
       </c>
       <c r="G23">
-        <v>0.002390783863872655</v>
+        <v>0.0004999120529027705</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.242485262935929</v>
+        <v>5.123683192695182</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.4144291304676</v>
+        <v>0.2168841838795856</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.200814127181388</v>
+        <v>5.04124794365265</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2196749642522775</v>
+        <v>0.7428335867490432</v>
       </c>
       <c r="E24">
-        <v>1.167743341923057</v>
+        <v>5.253755305252497</v>
       </c>
       <c r="F24">
-        <v>4.250462221508656</v>
+        <v>14.05985667135485</v>
       </c>
       <c r="G24">
-        <v>0.002409384755543507</v>
+        <v>0.0005648754592816176</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.090080659552257</v>
+        <v>3.966440002196862</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.45418066170841</v>
+        <v>0.365447187062534</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.005446237062586</v>
+        <v>3.940064338166621</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1952028624876334</v>
+        <v>0.5432427829919675</v>
       </c>
       <c r="E25">
-        <v>0.9604753759377047</v>
+        <v>3.922894399925781</v>
       </c>
       <c r="F25">
-        <v>3.766588364740215</v>
+        <v>10.41134182005339</v>
       </c>
       <c r="G25">
-        <v>0.002430752023853131</v>
+        <v>0.0006205536868933981</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9282319864749695</v>
+        <v>3.015845881226113</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.499884743834691</v>
+        <v>0.5227512959900036</v>
       </c>
       <c r="O25">
         <v>0</v>
